--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Features</t>
   </si>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Features</t>
   </si>
@@ -39,25 +39,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>[1, 3, 6, 7, 9, 12, 13, 15, 19, 21, 22, 26, 30, 31, 36, 37, 38, 42]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>0.3444</t>
-  </si>
-  <si>
-    <t>0.0396</t>
-  </si>
-  <si>
-    <t>0.0522</t>
-  </si>
-  <si>
-    <t>0.9445</t>
-  </si>
-  <si>
-    <t>1.0191</t>
+    <t>[0, 2, 3, 4, 8, 9, 11, 12, 15, 16, 17, 20, 21, 22, 29, 31, 32, 33, 34, 37, 38, 39]</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.0349</t>
+  </si>
+  <si>
+    <t>0.0839</t>
+  </si>
+  <si>
+    <t>0.8242</t>
+  </si>
+  <si>
+    <t>0.7806</t>
   </si>
 </sst>
 </file>
@@ -92,15 +92,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,375 +527,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 14, 18, 20, 22, 25, 26, 27, 28, 29, 31, 32, 34, 35, 36, 39, 42, 44]</t>
+          <t>[0, 2, 3, 6, 8, 9, 10, 11, 12, 16, 18, 19, 20, 22, 24, 29, 30, 32, 33, 34, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1457142857142857</t>
+          <t>0.6152777777777778</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.05160345804277673</t>
+          <t>0.03911413423980309</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.07233972162320434</t>
+          <t>0.08868631941478346</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8873835762247981</t>
+          <t>0.8037596213021814</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.402529239654541</t>
+          <t>0.5949921607971191</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 7, 11, 14, 15, 16, 17, 18, 21, 24, 25, 26, 31, 32, 33, 34, 37, 40, 44]</t>
+          <t>[1, 2, 3, 6, 8, 9, 11, 12, 13, 14, 16, 20, 21, 23, 25, 26, 28, 32, 34, 35, 37, 38]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.6541666666666667</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.046461460352398794</t>
+          <t>0.03746180906836914</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.10599886358327783</t>
+          <t>0.08654228427919446</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7582032362429473</t>
+          <t>0.8131333419916229</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.40558576583862305</t>
+          <t>0.7688090801239014</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 8, 13, 18, 19, 20, 22, 23, 28, 30, 31, 33, 34, 35, 36, 37, 40]</t>
+          <t>[0, 2, 3, 4, 8, 9, 11, 12, 15, 16, 17, 20, 21, 22, 29, 31, 32, 33, 34, 37, 38, 39]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6020634920634921</t>
+          <t>0.325</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.04567674241903806</t>
+          <t>0.03489555257740286</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.10851291968543089</t>
+          <t>0.08394942159379944</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.7465974602551921</t>
+          <t>0.8241628942839637</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4010913372039795</t>
+          <t>0.7806336879730225</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 7, 8, 9, 10, 11, 12, 17, 18, 20, 23, 25, 26, 31, 33, 35, 36, 42, 43, 44]</t>
+          <t>[0, 2, 3, 4, 8, 9, 10, 13, 14, 23, 26, 30, 31, 32, 33, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6192063492063492</t>
+          <t>0.2986111111111111</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05183925285115522</t>
+          <t>0.03607879354811731</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.11884477382917388</t>
+          <t>0.09352422889659269</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.6960457344374888</t>
+          <t>0.7817655127810511</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.40429186820983887</t>
+          <t>0.8756837844848633</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2, 7, 10, 11, 12, 18, 19, 20, 21, 22, 25, 29, 31, 32, 33, 34, 35, 37, 41, 42, 43, 44]</t>
+          <t>[2, 3, 5, 6, 7, 8, 9, 10, 12, 13, 16, 18, 20, 22, 23, 25, 26, 27, 31, 34, 36, 37, 38, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5252380952380953</t>
+          <t>0.6097222222222223</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.047952405548979164</t>
+          <t>0.03987979112684369</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.12780206269669428</t>
+          <t>0.10888970166605509</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6485012442058202</t>
+          <t>0.7041655637920802</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4072411060333252</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[3, 4, 5, 6, 9, 12, 13, 14, 18, 19, 23, 27, 29, 32, 33, 34, 35, 37, 38, 39, 40, 41, 42]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.6416666666666666</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.043063497184715256</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.08468583374918293</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.8539213505849526</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7440919876098633</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[0, 3, 6, 9, 10, 11, 12, 13, 16, 21, 22, 25, 27, 30, 31, 33, 34, 35, 36, 38, 40, 41, 42]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.7222222222222222</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.047316257504545864</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.05664428532751303</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.9346452115556693</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9137749671936035</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[2, 3, 6, 8, 11, 12, 13, 14, 19, 21, 22, 24, 25, 29, 31, 33, 37, 38, 39]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.5444444444444445</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.043482794334516746</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.06160112113289785</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.922706594516165</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.003119945526123</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[3, 7, 8, 10, 20, 21, 23, 24, 25, 27, 28, 30, 32, 34, 35, 36, 37, 38, 39, 40, 42]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.8666666666666667</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.044759112856204895</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.08073462408696584</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.8672346133363595</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1527953147888184</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[1, 3, 6, 7, 9, 12, 13, 15, 19, 21, 22, 26, 30, 31, 36, 37, 38, 42]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.34444444444444444</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03964260383466893</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.05217840988437519</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.9445442108580894</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0190889835357666</t>
+          <t>0.8579502105712891</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -39,25 +39,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>[0, 2, 3, 4, 8, 9, 11, 12, 15, 16, 17, 20, 21, 22, 29, 31, 32, 33, 34, 37, 38, 39]</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.0349</t>
-  </si>
-  <si>
-    <t>0.0839</t>
-  </si>
-  <si>
-    <t>0.8242</t>
-  </si>
-  <si>
-    <t>0.7806</t>
+    <t>[2, 7, 8, 9, 12, 14, 17, 20, 21, 28, 32, 33, 34, 35, 37, 39, 41, 42]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0.2815</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.0791</t>
+  </si>
+  <si>
+    <t>0.8439</t>
+  </si>
+  <si>
+    <t>0.3995</t>
   </si>
 </sst>
 </file>
@@ -92,15 +92,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -527,7 +527,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 6, 8, 9, 10, 11, 12, 16, 18, 19, 20, 22, 24, 29, 30, 32, 33, 34, 37, 38, 41]</t>
+          <t>[1, 2, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 16, 17, 20, 23, 24, 25, 28, 31, 33, 37, 41]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,71 +537,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6152777777777778</t>
+          <t>0.6555555555555556</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03911413423980309</t>
+          <t>0.03958204823589635</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.08868631941478346</t>
+          <t>0.08690357616221824</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8037596213021814</t>
+          <t>0.8115698442655126</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5949921607971191</t>
+          <t>0.41351795196533203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 8, 9, 11, 12, 13, 14, 16, 20, 21, 23, 25, 26, 28, 32, 34, 35, 37, 38]</t>
+          <t>[2, 3, 7, 8, 9, 10, 11, 12, 13, 14, 15, 17, 22, 23, 27, 28, 29, 34, 37, 38, 39]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6541666666666667</t>
+          <t>0.18703703703703706</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03746180906836914</t>
+          <t>0.038719045504922465</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.08654228427919446</t>
+          <t>0.706890123597329</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8131333419916229</t>
+          <t>-11.467487400621746</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7688090801239014</t>
+          <t>0.40817689895629883</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 8, 9, 11, 12, 15, 16, 17, 20, 21, 22, 29, 31, 32, 33, 34, 37, 38, 39]</t>
+          <t>[0, 1, 2, 4, 7, 8, 9, 10, 12, 14, 16, 17, 18, 21, 23, 26, 28, 31, 32, 35, 37, 42]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,34 +611,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.44999999999999996</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03489555257740286</t>
+          <t>0.035597445529333825</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.08394942159379944</t>
+          <t>0.24280657387430282</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8241628942839637</t>
+          <t>-0.4709435016017711</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7806336879730225</t>
+          <t>0.4091928005218506</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 8, 9, 10, 13, 14, 23, 26, 30, 31, 32, 33, 37, 38, 41]</t>
+          <t>[2, 7, 8, 9, 12, 14, 17, 20, 21, 28, 32, 33, 34, 35, 37, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -648,34 +648,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2986111111111111</t>
+          <t>0.2814814814814815</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03607879354811731</t>
+          <t>0.03704311972022554</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.09352422889659269</t>
+          <t>0.07910500212277499</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7817655127810511</t>
+          <t>0.8438712066525313</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8756837844848633</t>
+          <t>0.3994631767272949</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 7, 8, 9, 10, 12, 13, 16, 18, 20, 22, 23, 25, 26, 27, 31, 34, 36, 37, 38, 42]</t>
+          <t>[2, 3, 5, 7, 8, 9, 10, 12, 14, 16, 19, 20, 22, 25, 28, 29, 32, 34, 35, 36, 37, 38, 39, 43]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -685,32 +685,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.6097222222222223</t>
+          <t>0.32962962962962966</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03987979112684369</t>
+          <t>0.040190325365477876</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.10888970166605509</t>
+          <t>0.09935079006771295</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.7041655637920802</t>
+          <t>0.7537264558588035</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8579502105712891</t>
+          <t>0.40477848052978516</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
@@ -39,25 +39,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>[2, 7, 8, 9, 12, 14, 17, 20, 21, 28, 32, 33, 34, 35, 37, 39, 41, 42]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>0.2815</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.0791</t>
-  </si>
-  <si>
-    <t>0.8439</t>
-  </si>
-  <si>
-    <t>0.3995</t>
+    <t>[2, 3, 4, 8, 9, 12, 14, 16, 19, 21, 29, 31, 33, 34, 35, 36, 37, 38, 40, 41, 42]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0.3894</t>
+  </si>
+  <si>
+    <t>0.0386</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.8157</t>
+  </si>
+  <si>
+    <t>0.626</t>
   </si>
 </sst>
 </file>
@@ -527,155 +527,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 16, 17, 20, 23, 24, 25, 28, 31, 33, 37, 41]</t>
+          <t>[2, 3, 8, 9, 10, 11, 13, 14, 16, 20, 21, 22, 24, 29, 31, 35, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6555555555555556</t>
+          <t>0.3515151515151515</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03958204823589635</t>
+          <t>0.035815419023903776</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.08690357616221824</t>
+          <t>0.08173437522942731</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8115698442655126</t>
+          <t>0.8333195728616835</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.41351795196533203</t>
+          <t>0.6024575233459473</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 8, 9, 10, 11, 12, 13, 14, 15, 17, 22, 23, 27, 28, 29, 34, 37, 38, 39]</t>
+          <t>[0, 2, 3, 5, 8, 9, 12, 14, 15, 16, 19, 20, 22, 27, 28, 29, 30, 32, 35, 36, 37, 39, 43]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.18703703703703706</t>
+          <t>0.7954545454545454</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.038719045504922465</t>
+          <t>0.039749657041749833</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.706890123597329</t>
+          <t>0.10128547906161195</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-11.467487400621746</t>
+          <t>0.7440415430621556</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.40817689895629883</t>
+          <t>0.6316916942596436</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 7, 8, 9, 10, 12, 14, 16, 17, 18, 21, 23, 26, 28, 31, 32, 35, 37, 42]</t>
+          <t>[2, 3, 4, 8, 9, 12, 14, 16, 19, 21, 29, 31, 33, 34, 35, 36, 37, 38, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.44999999999999996</t>
+          <t>0.38939393939393935</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.035597445529333825</t>
+          <t>0.038641995861713394</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.24280657387430282</t>
+          <t>0.08595280009975029</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.4709435016017711</t>
+          <t>0.8156703625566908</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4091928005218506</t>
+          <t>0.6259536743164062</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2, 7, 8, 9, 12, 14, 17, 20, 21, 28, 32, 33, 34, 35, 37, 39, 41, 42]</t>
+          <t>[2, 3, 4, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 19, 23, 29, 37, 38, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2814814814814815</t>
+          <t>0.3363636363636363</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03704311972022554</t>
+          <t>0.039322075223036095</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.07910500212277499</t>
+          <t>0.16644920296905003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8438712066525313</t>
+          <t>0.30874457926444876</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3994631767272949</t>
+          <t>0.6263964176177979</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 7, 8, 9, 10, 12, 14, 16, 19, 20, 22, 25, 28, 29, 32, 34, 35, 36, 37, 38, 39, 43]</t>
+          <t>[2, 3, 4, 8, 9, 10, 12, 14, 15, 16, 18, 19, 21, 23, 26, 29, 31, 32, 33, 35, 37, 38, 40, 43]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.32962962962962966</t>
+          <t>0.2909090909090909</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.040190325365477876</t>
+          <t>0.03635305893821668</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.09935079006771295</t>
+          <t>0.09067731768826819</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.7537264558588035</t>
+          <t>0.7948495660838375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.40477848052978516</t>
+          <t>0.6110165119171143</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Features</t>
   </si>
@@ -39,25 +39,22 @@
     <t>Time</t>
   </si>
   <si>
-    <t>[2, 3, 4, 8, 9, 12, 14, 16, 19, 21, 29, 31, 33, 34, 35, 36, 37, 38, 40, 41, 42]</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>0.3894</t>
-  </si>
-  <si>
-    <t>0.0386</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.8157</t>
-  </si>
-  <si>
-    <t>0.626</t>
+    <t>[1, 3, 4, 5, 6, 11, 14, 15, 16, 22, 23, 24, 29, 31, 32, 34, 37, 39, 40, 41]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0.5128</t>
+  </si>
+  <si>
+    <t>0.0466</t>
+  </si>
+  <si>
+    <t>0.9625</t>
+  </si>
+  <si>
+    <t>0.6959</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 9, 10, 11, 13, 14, 16, 20, 21, 22, 24, 29, 31, 35, 37, 38, 41]</t>
+          <t>[2, 3, 4, 5, 6, 7, 9, 11, 12, 19, 22, 23, 26, 28, 31, 35, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,175 +534,175 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3515151515151515</t>
+          <t>0.5487179487179487</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.035815419023903776</t>
+          <t>0.05004894371697023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.08173437522942731</t>
+          <t>0.05165857523928938</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8333195728616835</t>
+          <t>0.9539042809988104</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6024575233459473</t>
+          <t>0.7744438648223877</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 8, 9, 12, 14, 15, 16, 19, 20, 22, 27, 28, 29, 30, 32, 35, 36, 37, 39, 43]</t>
+          <t>[2, 3, 4, 5, 6, 9, 13, 15, 18, 20, 22, 23, 26, 30, 31, 35, 37, 42, 44]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7954545454545454</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.039749657041749833</t>
+          <t>0.04903782084592333</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.10128547906161195</t>
+          <t>0.07957569724739548</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7440415430621556</t>
+          <t>0.8906203194362322</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6316916942596436</t>
+          <t>0.674208402633667</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 8, 9, 12, 14, 16, 19, 21, 29, 31, 33, 34, 35, 36, 37, 38, 40, 41, 42]</t>
+          <t>[0, 1, 2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 20, 22, 23, 26, 30, 31, 36, 44]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.38939393939393935</t>
+          <t>0.5269230769230768</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.038641995861713394</t>
+          <t>0.04444879650484486</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.08595280009975029</t>
+          <t>0.0427323471914023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8156703625566908</t>
+          <t>0.9684579989371492</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6259536743164062</t>
+          <t>0.7206525802612305</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 19, 23, 29, 37, 38, 39, 43, 44]</t>
+          <t>[0, 2, 3, 4, 5, 6, 8, 11, 13, 16, 19, 21, 31, 34, 36, 37, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.3363636363636363</t>
+          <t>0.5192307692307693</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.039322075223036095</t>
+          <t>0.04823114768580835</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.16644920296905003</t>
+          <t>0.16473552187295915</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.30874457926444876</t>
+          <t>0.531240310859342</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6263964176177979</t>
+          <t>0.7116670608520508</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 8, 9, 10, 12, 14, 15, 16, 18, 19, 21, 23, 26, 29, 31, 32, 33, 35, 37, 38, 40, 43]</t>
+          <t>[1, 3, 4, 5, 6, 11, 14, 15, 16, 22, 23, 24, 29, 31, 32, 34, 37, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.2909090909090909</t>
+          <t>0.5128205128205128</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03635305893821668</t>
+          <t>0.053297392326756586</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.09067731768826819</t>
+          <t>0.046617869438480626</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.7948495660838375</t>
+          <t>0.9624611825013789</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6110165119171143</t>
+          <t>0.695859432220459</t>
         </is>
       </c>
     </row>
@@ -755,17 +752,15 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrainKernel/DKNCOR/Know+Pos-Kernel/mlr.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="best" r:id="rId7" sheetId="3"/>
+    <sheet name="best" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Features</t>
   </si>
@@ -39,22 +39,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>[1, 3, 4, 5, 6, 11, 14, 15, 16, 22, 23, 24, 29, 31, 32, 34, 37, 39, 40, 41]</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0.5128</t>
-  </si>
-  <si>
-    <t>0.0466</t>
-  </si>
-  <si>
-    <t>0.9625</t>
-  </si>
-  <si>
-    <t>0.6959</t>
+    <t>[3, 4, 5, 6, 8, 9, 11, 12, 14, 15, 16, 17, 18, 21, 22, 25, 29, 30, 31, 34, 36, 37, 40, 42, 44]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0.7115</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.0543</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>0.9367</t>
   </si>
 </sst>
 </file>
@@ -524,185 +527,185 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5, 6, 7, 9, 11, 12, 19, 22, 23, 26, 28, 31, 35, 37, 39, 44]</t>
+          <t>[3, 4, 5, 6, 9, 11, 14, 17, 18, 20, 21, 22, 26, 30, 31, 32, 33, 36, 37, 40, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5487179487179487</t>
+          <t>0.6384615384615384</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.05004894371697023</t>
+          <t>0.04865150551305873</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.05165857523928938</t>
+          <t>0.058460208858616206</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9539042809988104</t>
+          <t>0.9409667802744462</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7744438648223877</t>
+          <t>0.817626953125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5, 6, 9, 13, 15, 18, 20, 22, 23, 26, 30, 31, 35, 37, 42, 44]</t>
+          <t>[2, 3, 4, 5, 6, 7, 8, 12, 14, 15, 17, 18, 21, 22, 26, 27, 33, 34, 36, 37, 38, 41, 44]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6641025641025642</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04903782084592333</t>
+          <t>0.04833920865514667</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.07957569724739548</t>
+          <t>0.11889922223850004</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8906203194362322</t>
+          <t>0.7558066836614863</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.674208402633667</t>
+          <t>0.8969407081604004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 20, 22, 23, 26, 30, 31, 36, 44]</t>
+          <t>[3, 4, 5, 6, 8, 9, 11, 12, 14, 15, 16, 17, 18, 21, 22, 25, 29, 30, 31, 34, 36, 37, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5269230769230768</t>
+          <t>0.7115384615384616</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.04444879650484486</t>
+          <t>0.047985193524773984</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0427323471914023</t>
+          <t>0.05433958827584167</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9684579989371492</t>
+          <t>0.9489955072871267</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7206525802612305</t>
+          <t>0.9367258548736572</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 5, 6, 8, 11, 13, 16, 19, 21, 31, 34, 36, 37, 39, 41, 42, 43]</t>
+          <t>[1, 3, 4, 5, 6, 9, 17, 18, 19, 20, 23, 27, 31, 33, 36, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5192307692307693</t>
+          <t>0.22179487179487178</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04823114768580835</t>
+          <t>0.049304718961417915</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.16473552187295915</t>
+          <t>0.0631805844481766</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.531240310859342</t>
+          <t>0.931048610338801</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7116670608520508</t>
+          <t>0.7305288314819336</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 11, 14, 15, 16, 22, 23, 24, 29, 31, 32, 34, 37, 39, 40, 41]</t>
+          <t>[2, 3, 4, 5, 6, 7, 8, 9, 11, 17, 20, 22, 25, 27, 29, 32, 33, 36, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.6461538461538461</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.053297392326756586</t>
+          <t>0.05206396626001862</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.046617869438480626</t>
+          <t>0.1679791130303318</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9624611825013789</t>
+          <t>0.5125991155134821</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.695859432220459</t>
+          <t>0.9514391422271729</t>
         </is>
       </c>
     </row>
@@ -752,15 +755,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
